--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -12,12 +12,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Attending a Lecture Breakup</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>ria walked into lecture beside Henry, and she was mentally rehearsing what she should say to break up with him.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">She had been putting it off with a growing sense of dread, and now this lecture was the last chance before she had to leave campus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lecture hall was large, with a stage for the lecturer in the front of the room, and tiered seats that stretched up in 15 stacked rows. </t>
+  </si>
+  <si>
+    <t>The clock struck 3 pm, and Maria and Henry slid into neighboring seats near the back of the room.</t>
+  </si>
+  <si>
+    <t>“Good afternoon, everybody," said the professor, fiddling to connect his laptop with the projector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Welcome to week 4 of Intro to Ancient Philosophy. </t>
+  </si>
+  <si>
+    <t>Today we are going to continue our lecture on Aristotelian Philosophy.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everyone in class pulled out their notebooks and settled in their seats as the slides appeared on the large front screens.</t>
+  </si>
+  <si>
+    <t>“Henry,” Maria whispered.</t>
+  </si>
+  <si>
+    <t>“Hmm?” he replied, distracted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Henry, I need to tell you something really important, and I don’t know when else I’ll have a chance to do it,” she said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Okay, what's up,” he said, tilting his head close to her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Henry, I don’t think I can do long distance.</t>
+  </si>
+  <si>
+    <t>I think what we have here is great, but I think it will be really hard when we are so far apart for such an extended period.</t>
+  </si>
+  <si>
+    <t>I’m sorry I’m telling you now in lecture, but I'm out of time, and it’s taken me awhile to come to this decision.</t>
+  </si>
+  <si>
+    <t>I really think this is best.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And who knows what will happen when I get back from my study abroad.” </t>
+  </si>
+  <si>
+    <t>While Henry tried to think of what to say, he and Maria stared unlistening at the professor as he started the lecture, "First we will talk about Aristotle’s work, The Categories, which is about the kinds, or categories, of things that there are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In fact, our term category comes from this Aristotelian context.” </t>
+  </si>
+  <si>
+    <t>Henry felt horrible, like the wind had just been knocked out of him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A few tears started to fall down his cheeks as he whispered back, “Maria, I think we can make it work.</t>
+  </si>
+  <si>
+    <t>I’ll come visit you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It will be fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don’t want to be broken up.”</t>
+  </si>
+  <si>
+    <t>Maria felt so guilty that she nearly gave in, but forced herself to hold her ground, knowing that this would make things much easier for both of them in the future.</t>
+  </si>
+  <si>
+    <t>She gave his hand a squeeze but shook her head sadly, before turning back to her laptop and half-heartedly taking notes on the lecture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The professor was wrapping up, “This is what Aristotle means when he says that an animal’s or plant’s form rather than its matter is its nature. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright class, that’s all for today. </t>
+  </si>
+  <si>
+    <t>Remember the final exam is coming up next week on Tuesday on the Pre-Socratics and Plato and Aristotle, so feel free to come by office hours to discuss if you are so inclined.</t>
+  </si>
+  <si>
+    <t>And if anyone is doing the 20 page paper in lieu of the final that’s due next Tuesday as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have a good day, folks.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria and Henry packed up hurriedly, and slipped quickly out of the class before the rest of the crowd. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">hey hugged outside, and both of them were crying. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">“Maria, I don’t want you to leave, I don’t want this to end. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But if this is what you think is best, I can’t make it otherwise.” </t>
+  </si>
+  <si>
+    <t>They hugged one last time, and Maria ran off to hail a cab.</t>
+  </si>
+  <si>
+    <t>Henry sadly watched her go. _x0005_</t>
   </si>
 </sst>
 </file>
@@ -27,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -43,6 +198,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -184,7 +344,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +357,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,14 +372,17 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,7 +1466,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1482,571 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" ht="92.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="104.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="116.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="80.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="80.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="56.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="68.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="104.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="92.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="56.05" customHeight="1">
+      <c r="A13" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="44.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="104.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="92.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="32.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="68.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="188.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="68.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="56.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="92.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="116.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="116.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="116.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="61.8" customHeight="1">
+      <c r="A29" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="313.8" customHeight="1">
+      <c r="A30" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="169.8" customHeight="1">
+      <c r="A31" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="61.8" customHeight="1">
+      <c r="A32" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="187.8" customHeight="1">
+      <c r="A33" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="97.8" customHeight="1">
+      <c r="A34" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="115.8" customHeight="1">
+      <c r="A35" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="115.8" customHeight="1">
+      <c r="A36" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="115.8" customHeight="1">
+      <c r="A37" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="61.8" customHeight="1">
+      <c r="A38" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="B38" s="9">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>storyText</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Today we are going to continue our lecture on Aristotelian Philosophy.”</t>
   </si>
   <si>
-    <t xml:space="preserve"> Everyone in class pulled out their notebooks and settled in their seats as the slides appeared on the large front screens.</t>
+    <t>Everyone in class pulled out their notebooks and settled in their seats as the slides appeared on the large front screens.</t>
   </si>
   <si>
     <t>“Henry,” Maria whispered.</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve"> “Henry, I need to tell you something really important, and I don’t know when else I’ll have a chance to do it,” she said.</t>
   </si>
   <si>
-    <t xml:space="preserve"> “Okay, what's up,” he said, tilting his head close to her. </t>
+    <t xml:space="preserve">“Okay, what's up?”, he said, tilting his head close to her. </t>
   </si>
   <si>
     <t xml:space="preserve"> “Henry, I don’t think I can do long distance.</t>
@@ -94,49 +94,46 @@
     <t>I’m sorry I’m telling you now in lecture, but I'm out of time, and it’s taken me awhile to come to this decision.</t>
   </si>
   <si>
-    <t>I really think this is best.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And who knows what will happen when I get back from my study abroad.” </t>
+    <t xml:space="preserve">I really think this is best, and who knows what will happen when I get back from my study abroad.” </t>
   </si>
   <si>
     <t>While Henry tried to think of what to say, he and Maria stared unlistening at the professor as he started the lecture, "First we will talk about Aristotle’s work, The Categories, which is about the kinds, or categories, of things that there are.</t>
   </si>
   <si>
-    <t xml:space="preserve"> In fact, our term category comes from this Aristotelian context.” </t>
+    <t xml:space="preserve">In fact, our term category comes from this Aristotelian context.” </t>
   </si>
   <si>
     <t>Henry felt horrible, like the wind had just been knocked out of him.</t>
   </si>
   <si>
-    <t xml:space="preserve"> A few tears started to fall down his cheeks as he whispered back, “Maria, I think we can make it work.</t>
+    <t>A few tears started to fall down his cheeks as he whispered back, “Maria, I think we can make it work.</t>
   </si>
   <si>
     <t>I’ll come visit you.</t>
   </si>
   <si>
-    <t xml:space="preserve"> It will be fine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don’t want to be broken up.”</t>
+    <t>It will be fine.</t>
+  </si>
+  <si>
+    <t>I don’t want to break up.”</t>
   </si>
   <si>
     <t>Maria felt so guilty that she nearly gave in, but forced herself to hold her ground, knowing that this would make things much easier for both of them in the future.</t>
   </si>
   <si>
-    <t>She gave his hand a squeeze but shook her head sadly, before turning back to her laptop and half-heartedly taking notes on the lecture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The professor was wrapping up, “This is what Aristotle means when he says that an animal’s or plant’s form rather than its matter is its nature. </t>
+    <t>She gave his hand a squeeze but shook her head sadly, before turning back to her laptop and half-heartedly taking notes on the lecture which they sat through in painful silence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, the professor was wrapping up, “This is what Aristotle means when he says that an animal’s or plant’s form rather than its matter is its nature. </t>
   </si>
   <si>
     <t xml:space="preserve">Alright class, that’s all for today. </t>
   </si>
   <si>
-    <t>Remember the final exam is coming up next week on Tuesday on the Pre-Socratics and Plato and Aristotle, so feel free to come by office hours to discuss if you are so inclined.</t>
-  </si>
-  <si>
-    <t>And if anyone is doing the 20 page paper in lieu of the final that’s due next Tuesday as well.</t>
+    <t>Remember the final exam is coming up next week on Tuesday on the Pre-Socratics, Plato, and Aristotle, so feel free to come by office hours to discuss if you have the inspiration.</t>
+  </si>
+  <si>
+    <t>And if anyone is doing the 20 page paper in lieu of the final, that’s due next Tuesday as well.</t>
   </si>
   <si>
     <t xml:space="preserve">Have a good day, folks.” </t>
@@ -163,13 +160,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">“Maria, I don’t want you to leave, I don’t want this to end. </t>
+    <t>“Maria, I don’t want you to leave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t want this to end. </t>
   </si>
   <si>
     <t xml:space="preserve">But if this is what you think is best, I can’t make it otherwise.” </t>
   </si>
   <si>
-    <t>They hugged one last time, and Maria ran off to hail a cab.</t>
+    <t>pandro</t>
+  </si>
+  <si>
+    <t>They hugged one last time, and Maria ran off to get her things from her dorm.</t>
   </si>
   <si>
     <t>Henry sadly watched her go. _x0005_</t>
@@ -186,7 +189,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -344,7 +347,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -382,7 +385,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,7 +1483,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1718,7 +1733,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="32.05" customHeight="1">
+    <row r="17" ht="80.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
@@ -1733,12 +1748,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="68.05" customHeight="1">
+    <row r="18" ht="188.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
       <c r="B18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1748,7 +1763,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="188.05" customHeight="1">
+    <row r="19" ht="68.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1763,7 +1778,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="68.05" customHeight="1">
+    <row r="20" ht="56.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1778,7 +1793,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="56.05" customHeight="1">
+    <row r="21" ht="92.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1786,14 +1801,14 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="92.05" customHeight="1">
+    <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1823,7 +1838,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
+    <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1838,7 +1853,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="32.05" customHeight="1">
+    <row r="25" ht="116.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1853,7 +1868,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="116.05" customHeight="1">
+    <row r="26" ht="140.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1868,12 +1883,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="116.05" customHeight="1">
+    <row r="27" ht="128.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
       <c r="B27" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -1883,8 +1898,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="116.05" customHeight="1">
-      <c r="A28" t="s" s="8">
+    <row r="28" ht="61.8" customHeight="1">
+      <c r="A28" t="s" s="12">
         <v>29</v>
       </c>
       <c r="B28" s="9">
@@ -1898,7 +1913,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="61.8" customHeight="1">
+    <row r="29" ht="313.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>30</v>
       </c>
@@ -1913,7 +1928,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="313.8" customHeight="1">
+    <row r="30" ht="169.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>31</v>
       </c>
@@ -1928,7 +1943,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="169.8" customHeight="1">
+    <row r="31" ht="61.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>32</v>
       </c>
@@ -1943,7 +1958,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="61.8" customHeight="1">
+    <row r="32" ht="187.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>33</v>
       </c>
@@ -1958,7 +1973,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="187.8" customHeight="1">
+    <row r="33" ht="97.8" customHeight="1">
       <c r="A33" t="s" s="12">
         <v>34</v>
       </c>
@@ -1966,14 +1981,14 @@
         <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="97.8" customHeight="1">
+    <row r="34" ht="79.8" customHeight="1">
       <c r="A34" t="s" s="12">
         <v>35</v>
       </c>
@@ -1988,16 +2003,12 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="115.8" customHeight="1">
+    <row r="35" ht="43.8" customHeight="1">
       <c r="A35" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10">
-        <v>4</v>
-      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -2007,8 +2018,8 @@
       <c r="A36" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="B36" s="9">
-        <v>4</v>
+      <c r="B36" t="s" s="14">
+        <v>38</v>
       </c>
       <c r="C36" s="10">
         <v>4</v>
@@ -2018,9 +2029,9 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="115.8" customHeight="1">
+    <row r="37" ht="151.8" customHeight="1">
       <c r="A37" t="s" s="12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="9">
         <v>4</v>
@@ -2033,9 +2044,9 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="61.8" customHeight="1">
+    <row r="38" ht="79.8" customHeight="1">
       <c r="A38" t="s" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="9">
         <v>4</v>

--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>storyText</t>
   </si>
@@ -61,10 +61,10 @@
     <t>The clock struck 3 pm, and Maria and Henry slid into neighboring seats near the back of the room.</t>
   </si>
   <si>
-    <t>“Good afternoon, everybody," said the professor, fiddling to connect his laptop with the projector.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Welcome to week 4 of Intro to Ancient Philosophy. </t>
+    <t>“Good afternoon, everybody,” said the professor, fiddling to connect his laptop with the projector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Welcome to week 4 of Intro to Ancient Philosophy. </t>
   </si>
   <si>
     <t>Today we are going to continue our lecture on Aristotelian Philosophy.”</t>
@@ -79,7 +79,7 @@
     <t>“Hmm?” he replied, distracted.</t>
   </si>
   <si>
-    <t xml:space="preserve"> “Henry, I need to tell you something really important, and I don’t know when else I’ll have a chance to do it,” she said.</t>
+    <t>“Henry, I need to tell you something really important, and I don’t know when else I’ll have a chance to do it,” she said.</t>
   </si>
   <si>
     <t xml:space="preserve">“Okay, what's up?”, he said, tilting his head close to her. </t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">I really think this is best, and who knows what will happen when I get back from my study abroad.” </t>
   </si>
   <si>
-    <t>While Henry tried to think of what to say, he and Maria stared unlistening at the professor as he started the lecture, "First we will talk about Aristotle’s work, The Categories, which is about the kinds, or categories, of things that there are.</t>
+    <t>While Henry tried to think of what to say, he and Maria stared unlistening at the professor as he started the lecture, “First we will talk about Aristotle’s work, The Categories, which is about the kinds, or categories, of things that there are.</t>
   </si>
   <si>
     <t xml:space="preserve">In fact, our term category comes from this Aristotelian context.” </t>
@@ -169,9 +169,6 @@
     <t xml:space="preserve">But if this is what you think is best, I can’t make it otherwise.” </t>
   </si>
   <si>
-    <t>pandro</t>
-  </si>
-  <si>
     <t>They hugged one last time, and Maria ran off to get her things from her dorm.</t>
   </si>
   <si>
@@ -189,7 +186,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -347,7 +344,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -385,13 +382,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,13 +1474,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2007,8 +1992,12 @@
       <c r="A35" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -2018,8 +2007,8 @@
       <c r="A36" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="B36" t="s" s="14">
-        <v>38</v>
+      <c r="B36" s="9">
+        <v>4</v>
       </c>
       <c r="C36" s="10">
         <v>4</v>
@@ -2031,7 +2020,7 @@
     </row>
     <row r="37" ht="151.8" customHeight="1">
       <c r="A37" t="s" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="9">
         <v>4</v>
@@ -2044,9 +2033,9 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="79.8" customHeight="1">
+    <row r="38" ht="61.8" customHeight="1">
       <c r="A38" t="s" s="12">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="9">
         <v>4</v>

--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>storyText</t>
   </si>
@@ -97,7 +97,10 @@
     <t xml:space="preserve">I really think this is best, and who knows what will happen when I get back from my study abroad.” </t>
   </si>
   <si>
-    <t>While Henry tried to think of what to say, he and Maria stared unlistening at the professor as he started the lecture, “First we will talk about Aristotle’s work, The Categories, which is about the kinds, or categories, of things that there are.</t>
+    <t>While Henry tried to think of what to say, he and Maria stared unlistening at the professor as he started the lecture, “First we will talk about Aristotle’s work, The Categories.</t>
+  </si>
+  <si>
+    <t>This text, as you might have been able to guess, is about the kinds, or categories, of things that there are.</t>
   </si>
   <si>
     <t xml:space="preserve">In fact, our term category comes from this Aristotelian context.” </t>
@@ -1466,7 +1469,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1733,7 +1736,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="188.05" customHeight="1">
+    <row r="18" ht="128.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
@@ -1748,7 +1751,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="68.05" customHeight="1">
+    <row r="19" ht="92.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1763,7 +1766,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="56.05" customHeight="1">
+    <row r="20" ht="68.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1778,7 +1781,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="92.05" customHeight="1">
+    <row r="21" ht="56.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1786,14 +1789,14 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
+    <row r="22" ht="92.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1823,7 +1826,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="32.05" customHeight="1">
+    <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1838,7 +1841,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="116.05" customHeight="1">
+    <row r="25" ht="32.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1853,7 +1856,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="140.05" customHeight="1">
+    <row r="26" ht="116.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1868,12 +1871,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="128.05" customHeight="1">
+    <row r="27" ht="140.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
       <c r="B27" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -1883,8 +1886,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="61.8" customHeight="1">
-      <c r="A28" t="s" s="12">
+    <row r="28" ht="128.05" customHeight="1">
+      <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
       <c r="B28" s="9">
@@ -1898,7 +1901,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="313.8" customHeight="1">
+    <row r="29" ht="61.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>30</v>
       </c>
@@ -1913,7 +1916,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="169.8" customHeight="1">
+    <row r="30" ht="313.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>31</v>
       </c>
@@ -1928,7 +1931,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="61.8" customHeight="1">
+    <row r="31" ht="169.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>32</v>
       </c>
@@ -1943,7 +1946,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="187.8" customHeight="1">
+    <row r="32" ht="61.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>33</v>
       </c>
@@ -1958,7 +1961,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="97.8" customHeight="1">
+    <row r="33" ht="187.8" customHeight="1">
       <c r="A33" t="s" s="12">
         <v>34</v>
       </c>
@@ -1966,14 +1969,14 @@
         <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="79.8" customHeight="1">
+    <row r="34" ht="97.8" customHeight="1">
       <c r="A34" t="s" s="12">
         <v>35</v>
       </c>
@@ -1988,7 +1991,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="43.8" customHeight="1">
+    <row r="35" ht="79.8" customHeight="1">
       <c r="A35" t="s" s="12">
         <v>36</v>
       </c>
@@ -2003,7 +2006,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="115.8" customHeight="1">
+    <row r="36" ht="43.8" customHeight="1">
       <c r="A36" t="s" s="12">
         <v>37</v>
       </c>
@@ -2018,7 +2021,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="151.8" customHeight="1">
+    <row r="37" ht="115.8" customHeight="1">
       <c r="A37" t="s" s="12">
         <v>38</v>
       </c>
@@ -2033,7 +2036,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="61.8" customHeight="1">
+    <row r="38" ht="151.8" customHeight="1">
       <c r="A38" t="s" s="12">
         <v>39</v>
       </c>
@@ -2047,6 +2050,21 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="61.8" customHeight="1">
+      <c r="A39" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -189,7 +192,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -385,7 +388,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1477,7 +1480,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1491,14 +1500,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="92.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1506,14 +1517,16 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6">
+        <v>14</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="104.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1528,7 +1541,7 @@
     </row>
     <row r="4" ht="116.05" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1543,7 +1556,7 @@
     </row>
     <row r="5" ht="80.05" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1558,7 +1571,7 @@
     </row>
     <row r="6" ht="80.05" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -1573,7 +1586,7 @@
     </row>
     <row r="7" ht="56.05" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
@@ -1588,7 +1601,7 @@
     </row>
     <row r="8" ht="68.05" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
@@ -1603,7 +1616,7 @@
     </row>
     <row r="9" ht="104.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
@@ -1618,7 +1631,7 @@
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
@@ -1633,7 +1646,7 @@
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -1648,7 +1661,7 @@
     </row>
     <row r="12" ht="92.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -1663,7 +1676,7 @@
     </row>
     <row r="13" ht="56.05" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -1678,7 +1691,7 @@
     </row>
     <row r="14" ht="44.05" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1693,7 +1706,7 @@
     </row>
     <row r="15" ht="104.05" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
@@ -1708,7 +1721,7 @@
     </row>
     <row r="16" ht="92.05" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
@@ -1723,7 +1736,7 @@
     </row>
     <row r="17" ht="80.05" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
@@ -1738,7 +1751,7 @@
     </row>
     <row r="18" ht="128.05" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
         <v>3</v>
@@ -1753,7 +1766,7 @@
     </row>
     <row r="19" ht="92.05" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9">
         <v>3</v>
@@ -1768,7 +1781,7 @@
     </row>
     <row r="20" ht="68.05" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>3</v>
@@ -1783,7 +1796,7 @@
     </row>
     <row r="21" ht="56.05" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
@@ -1798,7 +1811,7 @@
     </row>
     <row r="22" ht="92.05" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>3</v>
@@ -1813,7 +1826,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
@@ -1828,7 +1841,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="9">
         <v>3</v>
@@ -1843,7 +1856,7 @@
     </row>
     <row r="25" ht="32.05" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="9">
         <v>3</v>
@@ -1858,7 +1871,7 @@
     </row>
     <row r="26" ht="116.05" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9">
         <v>3</v>
@@ -1873,7 +1886,7 @@
     </row>
     <row r="27" ht="140.05" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9">
         <v>3</v>
@@ -1888,7 +1901,7 @@
     </row>
     <row r="28" ht="128.05" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="9">
         <v>4</v>
@@ -1903,7 +1916,7 @@
     </row>
     <row r="29" ht="61.8" customHeight="1">
       <c r="A29" t="s" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9">
         <v>4</v>
@@ -1918,7 +1931,7 @@
     </row>
     <row r="30" ht="313.8" customHeight="1">
       <c r="A30" t="s" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="9">
         <v>4</v>
@@ -1933,7 +1946,7 @@
     </row>
     <row r="31" ht="169.8" customHeight="1">
       <c r="A31" t="s" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="9">
         <v>4</v>
@@ -1948,7 +1961,7 @@
     </row>
     <row r="32" ht="61.8" customHeight="1">
       <c r="A32" t="s" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="9">
         <v>4</v>
@@ -1963,7 +1976,7 @@
     </row>
     <row r="33" ht="187.8" customHeight="1">
       <c r="A33" t="s" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="9">
         <v>4</v>
@@ -1978,7 +1991,7 @@
     </row>
     <row r="34" ht="97.8" customHeight="1">
       <c r="A34" t="s" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="9">
         <v>4</v>
@@ -1993,7 +2006,7 @@
     </row>
     <row r="35" ht="79.8" customHeight="1">
       <c r="A35" t="s" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="9">
         <v>4</v>
@@ -2008,7 +2021,7 @@
     </row>
     <row r="36" ht="43.8" customHeight="1">
       <c r="A36" t="s" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="9">
         <v>4</v>
@@ -2023,7 +2036,7 @@
     </row>
     <row r="37" ht="115.8" customHeight="1">
       <c r="A37" t="s" s="12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="9">
         <v>4</v>
@@ -2038,7 +2051,7 @@
     </row>
     <row r="38" ht="151.8" customHeight="1">
       <c r="A38" t="s" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="9">
         <v>4</v>
@@ -2051,9 +2064,9 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="61.8" customHeight="1">
+    <row r="39" ht="79.8" customHeight="1">
       <c r="A39" t="s" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="9">
         <v>4</v>

--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>storyText</t>
   </si>
@@ -55,7 +55,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">She had been putting it off with a growing sense of dread, and now this lecture was the last chance before she had to leave campus. </t>
+    <t xml:space="preserve">She had been putting it off with a growing sense of dread for the past week since she had begun to think about breaking up with Henry, and now this lecture was the last chance before she had to leave campus. </t>
   </si>
   <si>
     <t xml:space="preserve">The lecture hall was large, with a stage for the lecturer in the front of the room, and tiered seats that stretched up in 15 stacked rows. </t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">“Okay, what's up?”, he said, tilting his head close to her. </t>
   </si>
   <si>
-    <t xml:space="preserve"> “Henry, I don’t think I can do long distance.</t>
+    <t xml:space="preserve"> “Henry, I think we should break up because I don’t think I can do long distance.</t>
   </si>
   <si>
     <t>I think what we have here is great, but I think it will be really hard when we are so far apart for such an extended period.</t>
@@ -97,7 +97,10 @@
     <t>I’m sorry I’m telling you now in lecture, but I'm out of time, and it’s taken me awhile to come to this decision.</t>
   </si>
   <si>
-    <t xml:space="preserve">I really think this is best, and who knows what will happen when I get back from my study abroad.” </t>
+    <t>I really think this is best, and who knows what will happen when I get back from my study abroad.</t>
+  </si>
+  <si>
+    <t>I just know when I’m there I’m going to be so busy and I really want to be immersed.”</t>
   </si>
   <si>
     <t>While Henry tried to think of what to say, he and Maria stared unlistening at the professor as he started the lecture, “First we will talk about Aristotle’s work, The Categories.</t>
@@ -112,13 +115,10 @@
     <t>Henry felt horrible, like the wind had just been knocked out of him.</t>
   </si>
   <si>
-    <t>A few tears started to fall down his cheeks as he whispered back, “Maria, I think we can make it work.</t>
-  </si>
-  <si>
-    <t>I’ll come visit you.</t>
-  </si>
-  <si>
-    <t>It will be fine.</t>
+    <t>A few tears started to fall down his cheeks as he whispered back, “Maria, I don’t want to break up with you because I love you.</t>
+  </si>
+  <si>
+    <t>I’ll come visit you and it will be fine.</t>
   </si>
   <si>
     <t>I don’t want to break up.”</t>
@@ -175,10 +175,13 @@
     <t xml:space="preserve">But if this is what you think is best, I can’t make it otherwise.” </t>
   </si>
   <si>
-    <t>They hugged one last time, and Maria ran off to get her things from her dorm.</t>
-  </si>
-  <si>
-    <t>Henry sadly watched her go. _x0005_</t>
+    <t>They hugged one last time, and then Maria remembered she had left her favorite Alpaca sweater in Henry’s room.</t>
+  </si>
+  <si>
+    <t>“Henry, I’m so sorry to ask this now but could you grab my alpaca sweater from your dorm and meet me in front of the student center?”</t>
+  </si>
+  <si>
+    <t>He agreed, and she ran off to get her things from her dorm as he sadly watched her go. _x0005_</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -388,7 +391,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,7 +1475,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1480,13 +1483,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1524,7 +1521,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="104.05" customHeight="1">
+    <row r="3" ht="164.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1689,7 +1686,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="44.05" customHeight="1">
+    <row r="14" ht="68.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1749,12 +1746,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="128.05" customHeight="1">
+    <row r="18" ht="68.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1764,7 +1761,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="92.05" customHeight="1">
+    <row r="19" ht="128.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1779,7 +1776,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="68.05" customHeight="1">
+    <row r="20" ht="92.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1794,7 +1791,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="56.05" customHeight="1">
+    <row r="21" ht="68.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1809,7 +1806,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="92.05" customHeight="1">
+    <row r="22" ht="56.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1817,14 +1814,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
+    <row r="23" ht="116.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1839,7 +1836,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
+    <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -2049,7 +2046,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="151.8" customHeight="1">
+    <row r="38" ht="241.8" customHeight="1">
       <c r="A38" t="s" s="12">
         <v>40</v>
       </c>
@@ -2064,7 +2061,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="79.8" customHeight="1">
+    <row r="39" ht="241.8" customHeight="1">
       <c r="A39" t="s" s="12">
         <v>41</v>
       </c>
@@ -2078,6 +2075,21 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="169.8" customHeight="1">
+      <c r="A40" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -33,7 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>M</t>
+      <t>Henry walked into lecture with Maria who</t>
     </r>
     <r>
       <rPr>
@@ -42,7 +42,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>a</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -51,59 +51,44 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>ria walked into lecture beside Henry, and she was mentally rehearsing what she should say to break up with him.</t>
+      <t>was mentally rehearsing what she should say to break up with him.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">She had been putting it off with a growing sense of dread for the past week since she had begun to think about breaking up with Henry, and now this lecture was the last chance before she had to leave campus. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lecture hall was large, with a stage for the lecturer in the front of the room, and tiered seats that stretched up in 15 stacked rows. </t>
-  </si>
-  <si>
-    <t>The clock struck 3 pm, and Maria and Henry slid into neighboring seats near the back of the room.</t>
-  </si>
-  <si>
-    <t>“Good afternoon, everybody,” said the professor, fiddling to connect his laptop with the projector.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Welcome to week 4 of Intro to Ancient Philosophy. </t>
+    <t xml:space="preserve">She had been putting it off with a growing sense of dread as she had been since she started to think of it a week ago and now this lecture was the last chance to do it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lecture hall was large, with a stage for the lecturer in the front of the room, and 15 tiered rows  of desks. </t>
+  </si>
+  <si>
+    <t>Maria and Henry slid into neighboring seats near the back of the room.</t>
+  </si>
+  <si>
+    <t>The professor opened up the lecture, “Good afternoon, everybody.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As he fiddled with the cords to connect his laptop to the projector, he continued to say, “Welcome to week 4 of Intro to Ancient Philosophy. </t>
   </si>
   <si>
     <t>Today we are going to continue our lecture on Aristotelian Philosophy.”</t>
   </si>
   <si>
-    <t>Everyone in class pulled out their notebooks and settled in their seats as the slides appeared on the large front screens.</t>
-  </si>
-  <si>
-    <t>“Henry,” Maria whispered.</t>
-  </si>
-  <si>
-    <t>“Hmm?” he replied, distracted.</t>
-  </si>
-  <si>
-    <t>“Henry, I need to tell you something really important, and I don’t know when else I’ll have a chance to do it,” she said.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Okay, what's up?”, he said, tilting his head close to her. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “Henry, I think we should break up because I don’t think I can do long distance.</t>
+    <t>Mostly everyone in class was taking notes.</t>
+  </si>
+  <si>
+    <t>Maria took a deep breath, decided to rip off the bandaid, and leaning into Henry’s desk, said, “Henry, I think we should- I think we should break up because I don’t think I can do long distance.</t>
   </si>
   <si>
     <t>I think what we have here is great, but I think it will be really hard when we are so far apart for such an extended period.</t>
   </si>
   <si>
-    <t>I’m sorry I’m telling you now in lecture, but I'm out of time, and it’s taken me awhile to come to this decision.</t>
-  </si>
-  <si>
-    <t>I really think this is best, and who knows what will happen when I get back from my study abroad.</t>
+    <t>I’m sorry I’m telling you now in lecture, but you know, I have to run after class and this is really hard for me.</t>
   </si>
   <si>
     <t>I just know when I’m there I’m going to be so busy and I really want to be immersed.”</t>
   </si>
   <si>
-    <t>While Henry tried to think of what to say, he and Maria stared unlistening at the professor as he started the lecture, “First we will talk about Aristotle’s work, The Categories.</t>
+    <t>The professor said in the lecture, “We will now talk about Aristotle’s work, The Categories.</t>
   </si>
   <si>
     <t>This text, as you might have been able to guess, is about the kinds, or categories, of things that there are.</t>
@@ -112,10 +97,7 @@
     <t xml:space="preserve">In fact, our term category comes from this Aristotelian context.” </t>
   </si>
   <si>
-    <t>Henry felt horrible, like the wind had just been knocked out of him.</t>
-  </si>
-  <si>
-    <t>A few tears started to fall down his cheeks as he whispered back, “Maria, I don’t want to break up with you because I love you.</t>
+    <t>Henry felt horrible, like the wind had just been knocked out of him and he whispered back, “Maria, I don’t want to break up with you because I love you.</t>
   </si>
   <si>
     <t>I’ll come visit you and it will be fine.</t>
@@ -127,13 +109,13 @@
     <t>Maria felt so guilty that she nearly gave in, but forced herself to hold her ground, knowing that this would make things much easier for both of them in the future.</t>
   </si>
   <si>
-    <t>She gave his hand a squeeze but shook her head sadly, before turning back to her laptop and half-heartedly taking notes on the lecture which they sat through in painful silence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finally, the professor was wrapping up, “This is what Aristotle means when he says that an animal’s or plant’s form rather than its matter is its nature. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alright class, that’s all for today. </t>
+    <t xml:space="preserve">She gave his hand a squeeze but shook her head sadly, before turning back to look at her empty desk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The professor wrapped up, “This is what Aristotle means when he says that an animal’s or plant’s form rather than its matter is its nature. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright, class, that’s all for today. </t>
   </si>
   <si>
     <t>Remember the final exam is coming up next week on Tuesday on the Pre-Socratics, Plato, and Aristotle, so feel free to come by office hours to discuss if you have the inspiration.</t>
@@ -143,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">Have a good day, folks.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria and Henry packed up hurriedly, and slipped quickly out of the class before the rest of the crowd. </t>
   </si>
   <si>
     <r>
@@ -154,7 +133,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>T</t>
+      <t>Maria and Henry packed up hurriedly, and t</t>
     </r>
     <r>
       <rPr>
@@ -162,7 +141,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">hey hugged outside, and both of them were crying. </t>
+      <t xml:space="preserve">hey hugged; both of them had tears. </t>
     </r>
   </si>
   <si>
@@ -1475,7 +1454,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1504,7 +1483,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="92.25" customHeight="1">
+    <row r="2" ht="80.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
@@ -1521,7 +1500,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="164.05" customHeight="1">
+    <row r="3" ht="128.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1536,7 +1515,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="116.05" customHeight="1">
+    <row r="4" ht="92.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1551,7 +1530,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="80.05" customHeight="1">
+    <row r="5" ht="68.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1566,7 +1545,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="80.05" customHeight="1">
+    <row r="6" ht="68.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1581,7 +1560,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="56.05" customHeight="1">
+    <row r="7" ht="116.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1611,7 +1590,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="104.05" customHeight="1">
+    <row r="9" ht="44.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1626,7 +1605,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="32.05" customHeight="1">
+    <row r="10" ht="152.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1634,14 +1613,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="32.05" customHeight="1">
+    <row r="11" ht="104.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1649,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1664,14 +1643,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="56.05" customHeight="1">
+    <row r="13" ht="68.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1679,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1691,7 +1670,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -1701,12 +1680,12 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="104.05" customHeight="1">
+    <row r="15" ht="92.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
       <c r="B15" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -1716,12 +1695,12 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="92.05" customHeight="1">
+    <row r="16" ht="68.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
       <c r="B16" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -1731,37 +1710,37 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="80.05" customHeight="1">
+    <row r="17" ht="116.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
       <c r="B17" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="68.05" customHeight="1">
+    <row r="18" ht="32.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="128.05" customHeight="1">
+    <row r="19" ht="32.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1769,14 +1748,14 @@
         <v>3</v>
       </c>
       <c r="C19" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="92.05" customHeight="1">
+    <row r="20" ht="116.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1784,14 +1763,14 @@
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="68.05" customHeight="1">
+    <row r="21" ht="92.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1799,34 +1778,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="56.05" customHeight="1">
+    <row r="22" ht="116.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
       <c r="B22" s="9">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10">
         <v>3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="116.05" customHeight="1">
-      <c r="A23" t="s" s="8">
+    <row r="23" ht="61.8" customHeight="1">
+      <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
       <c r="B23" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -1836,12 +1815,12 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="32.05" customHeight="1">
-      <c r="A24" t="s" s="8">
+    <row r="24" ht="313.8" customHeight="1">
+      <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
       <c r="B24" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -1851,12 +1830,12 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="32.05" customHeight="1">
-      <c r="A25" t="s" s="8">
+    <row r="25" ht="169.8" customHeight="1">
+      <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
       <c r="B25" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -1866,12 +1845,12 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="116.05" customHeight="1">
-      <c r="A26" t="s" s="8">
+    <row r="26" ht="61.8" customHeight="1">
+      <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
       <c r="B26" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -1881,37 +1860,37 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="140.05" customHeight="1">
-      <c r="A27" t="s" s="8">
+    <row r="27" ht="151.8" customHeight="1">
+      <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
       <c r="B27" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="128.05" customHeight="1">
-      <c r="A28" t="s" s="8">
+    <row r="28" ht="79.8" customHeight="1">
+      <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
       <c r="B28" s="9">
         <v>4</v>
       </c>
       <c r="C28" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="61.8" customHeight="1">
+    <row r="29" ht="43.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
@@ -1919,14 +1898,14 @@
         <v>4</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="313.8" customHeight="1">
+    <row r="30" ht="115.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>32</v>
       </c>
@@ -1934,14 +1913,14 @@
         <v>4</v>
       </c>
       <c r="C30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="169.8" customHeight="1">
+    <row r="31" ht="241.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>33</v>
       </c>
@@ -1949,14 +1928,14 @@
         <v>4</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="61.8" customHeight="1">
+    <row r="32" ht="241.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>34</v>
       </c>
@@ -1964,14 +1943,14 @@
         <v>4</v>
       </c>
       <c r="C32" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="187.8" customHeight="1">
+    <row r="33" ht="169.8" customHeight="1">
       <c r="A33" t="s" s="12">
         <v>35</v>
       </c>
@@ -1979,117 +1958,12 @@
         <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="97.8" customHeight="1">
-      <c r="A34" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="79.8" customHeight="1">
-      <c r="A35" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="43.8" customHeight="1">
-      <c r="A36" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="B36" s="9">
-        <v>4</v>
-      </c>
-      <c r="C36" s="10">
-        <v>4</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="115.8" customHeight="1">
-      <c r="A37" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="B37" s="9">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10">
-        <v>4</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="241.8" customHeight="1">
-      <c r="A38" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9">
-        <v>4</v>
-      </c>
-      <c r="C38" s="10">
-        <v>4</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" ht="241.8" customHeight="1">
-      <c r="A39" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="B39" s="9">
-        <v>4</v>
-      </c>
-      <c r="C39" s="10">
-        <v>4</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="169.8" customHeight="1">
-      <c r="A40" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9">
-        <v>4</v>
-      </c>
-      <c r="C40" s="10">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>storyText</t>
   </si>
@@ -55,16 +55,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">She had been putting it off with a growing sense of dread as she had been since she started to think of it a week ago and now this lecture was the last chance to do it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lecture hall was large, with a stage for the lecturer in the front of the room, and 15 tiered rows  of desks. </t>
+    <t xml:space="preserve">She had been putting it off with a growing sense of dread as she had been since she started to think about it a week ago and now this lecture was the last chance to do it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lecture hall was large, with a stage for the lecturer in the front of the room, and 15 tiered rows of desks. </t>
   </si>
   <si>
     <t>Maria and Henry slid into neighboring seats near the back of the room.</t>
   </si>
   <si>
-    <t>The professor opened up the lecture, “Good afternoon, everybody.”</t>
+    <t>The professor opened up the lecture with a hardy greeting, “Good afternoon, everybody.”</t>
   </si>
   <si>
     <t xml:space="preserve">As he fiddled with the cords to connect his laptop to the projector, he continued to say, “Welcome to week 4 of Intro to Ancient Philosophy. </t>
@@ -79,16 +79,16 @@
     <t>Maria took a deep breath, decided to rip off the bandaid, and leaning into Henry’s desk, said, “Henry, I think we should- I think we should break up because I don’t think I can do long distance.</t>
   </si>
   <si>
-    <t>I think what we have here is great, but I think it will be really hard when we are so far apart for such an extended period.</t>
+    <t>I think what we have here is great, but I think it will be really hard when we are so far apart for so long during my study abroad.</t>
   </si>
   <si>
     <t>I’m sorry I’m telling you now in lecture, but you know, I have to run after class and this is really hard for me.</t>
   </si>
   <si>
-    <t>I just know when I’m there I’m going to be so busy and I really want to be immersed.”</t>
-  </si>
-  <si>
-    <t>The professor said in the lecture, “We will now talk about Aristotle’s work, The Categories.</t>
+    <t>I just know when I’m there I’m going to be so busy and I really want to be immersed in the life of the place I’m in.”</t>
+  </si>
+  <si>
+    <t>The professor said, “We will now talk about one of Aristotle’s works, The Categories.</t>
   </si>
   <si>
     <t>This text, as you might have been able to guess, is about the kinds, or categories, of things that there are.</t>
@@ -112,16 +112,13 @@
     <t xml:space="preserve">She gave his hand a squeeze but shook her head sadly, before turning back to look at her empty desk. </t>
   </si>
   <si>
-    <t xml:space="preserve">The professor wrapped up, “This is what Aristotle means when he says that an animal’s or plant’s form rather than its matter is its nature. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alright, class, that’s all for today. </t>
+    <t>The professor wrapped up, “Alright, class, that’s all for today.</t>
   </si>
   <si>
     <t>Remember the final exam is coming up next week on Tuesday on the Pre-Socratics, Plato, and Aristotle, so feel free to come by office hours to discuss if you have the inspiration.</t>
   </si>
   <si>
-    <t>And if anyone is doing the 20 page paper in lieu of the final, that’s due next Tuesday as well.</t>
+    <t xml:space="preserve">If anyone has any conflicts with another exam, please email me so that we can figure out a time to reschedule it. </t>
   </si>
   <si>
     <t xml:space="preserve">Have a good day, folks.” </t>
@@ -1454,7 +1451,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1500,7 +1497,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="128.05" customHeight="1">
+    <row r="3" ht="140.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1545,7 +1542,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="68.05" customHeight="1">
+    <row r="6" ht="80.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1650,7 +1647,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="68.05" customHeight="1">
+    <row r="13" ht="92.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1785,7 +1782,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="116.05" customHeight="1">
+    <row r="22" ht="56.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1800,7 +1797,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="61.8" customHeight="1">
+    <row r="23" ht="313.8" customHeight="1">
       <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
@@ -1815,7 +1812,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="313.8" customHeight="1">
+    <row r="24" ht="223.8" customHeight="1">
       <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
@@ -1830,7 +1827,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="169.8" customHeight="1">
+    <row r="25" ht="61.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
@@ -1845,7 +1842,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="61.8" customHeight="1">
+    <row r="26" ht="151.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
@@ -1853,14 +1850,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="151.8" customHeight="1">
+    <row r="27" ht="79.8" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
@@ -1875,7 +1872,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="79.8" customHeight="1">
+    <row r="28" ht="43.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
@@ -1890,7 +1887,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="43.8" customHeight="1">
+    <row r="29" ht="115.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
@@ -1905,7 +1902,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="115.8" customHeight="1">
+    <row r="30" ht="241.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>32</v>
       </c>
@@ -1935,7 +1932,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="241.8" customHeight="1">
+    <row r="32" ht="169.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>34</v>
       </c>
@@ -1949,21 +1946,6 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="169.8" customHeight="1">
-      <c r="A33" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -55,7 +55,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">She had been putting it off with a growing sense of dread as she had been since she started to think about it a week ago and now this lecture was the last chance to do it. </t>
+    <t>She had been putting it off with a growing sense of dread as she had been since she started to think about it a week ago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now this lecture was the last chance to do it. </t>
   </si>
   <si>
     <t xml:space="preserve">The lecture hall was large, with a stage for the lecturer in the front of the room, and 15 tiered rows of desks. </t>
@@ -67,7 +70,7 @@
     <t>The professor opened up the lecture with a hardy greeting, “Good afternoon, everybody.”</t>
   </si>
   <si>
-    <t xml:space="preserve">As he fiddled with the cords to connect his laptop to the projector, he continued to say, “Welcome to week 4 of Intro to Ancient Philosophy. </t>
+    <t xml:space="preserve">As he fiddled with the cords to connect his laptop to the projector, he continued to say, “Welcome to Week 4 of Intro to Ancient Philosophy. </t>
   </si>
   <si>
     <t>Today we are going to continue our lecture on Aristotelian Philosophy.”</t>
@@ -82,7 +85,7 @@
     <t>I think what we have here is great, but I think it will be really hard when we are so far apart for so long during my study abroad.</t>
   </si>
   <si>
-    <t>I’m sorry I’m telling you now in lecture, but you know, I have to run after class and this is really hard for me.</t>
+    <t>I’m sorry I’m telling you now in lecture, but you know, I have to leave for the airport after class and this is really hard for me to tell you.</t>
   </si>
   <si>
     <t>I just know when I’m there I’m going to be so busy and I really want to be immersed in the life of the place I’m in.”</t>
@@ -94,7 +97,10 @@
     <t>This text, as you might have been able to guess, is about the kinds, or categories, of things that there are.</t>
   </si>
   <si>
-    <t xml:space="preserve">In fact, our term category comes from this Aristotelian context.” </t>
+    <t>In fact, our term category comes from this Aristotelian context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Categories, traditionally interpreted as an introduction to Aristotle’s logical work, divides all of  being into ten categories.” </t>
   </si>
   <si>
     <t>Henry felt horrible, like the wind had just been knocked out of him and he whispered back, “Maria, I don’t want to break up with you because I love you.</t>
@@ -1451,7 +1457,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1497,7 +1503,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="140.05" customHeight="1">
+    <row r="3" ht="104.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1512,7 +1518,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="92.05" customHeight="1">
+    <row r="4" ht="44.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1527,7 +1533,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="68.05" customHeight="1">
+    <row r="5" ht="92.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1542,12 +1548,12 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="80.05" customHeight="1">
+    <row r="6" ht="68.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
       <c r="B6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -1557,7 +1563,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="116.05" customHeight="1">
+    <row r="7" ht="80.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1572,7 +1578,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="68.05" customHeight="1">
+    <row r="8" ht="116.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1587,7 +1593,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="44.05" customHeight="1">
+    <row r="9" ht="68.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1602,7 +1608,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="152.05" customHeight="1">
+    <row r="10" ht="44.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1610,14 +1616,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="104.05" customHeight="1">
+    <row r="11" ht="152.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1632,7 +1638,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="92.05" customHeight="1">
+    <row r="12" ht="104.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1647,7 +1653,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="92.05" customHeight="1">
+    <row r="13" ht="116.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1662,12 +1668,12 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="68.05" customHeight="1">
+    <row r="14" ht="92.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
       <c r="B14" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -1677,7 +1683,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="92.05" customHeight="1">
+    <row r="15" ht="68.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
@@ -1692,7 +1698,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="68.05" customHeight="1">
+    <row r="16" ht="92.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
@@ -1707,7 +1713,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="116.05" customHeight="1">
+    <row r="17" ht="68.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1715,14 +1721,14 @@
         <v>3</v>
       </c>
       <c r="C17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="32.05" customHeight="1">
+    <row r="18" ht="104.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
@@ -1730,14 +1736,14 @@
         <v>3</v>
       </c>
       <c r="C18" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="32.05" customHeight="1">
+    <row r="19" ht="116.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1752,7 +1758,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="116.05" customHeight="1">
+    <row r="20" ht="32.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1767,7 +1773,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="92.05" customHeight="1">
+    <row r="21" ht="32.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1782,12 +1788,12 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="56.05" customHeight="1">
+    <row r="22" ht="116.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
       <c r="B22" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -1797,12 +1803,12 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="313.8" customHeight="1">
-      <c r="A23" t="s" s="12">
+    <row r="23" ht="92.05" customHeight="1">
+      <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
       <c r="B23" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -1812,8 +1818,8 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="223.8" customHeight="1">
-      <c r="A24" t="s" s="12">
+    <row r="24" ht="56.05" customHeight="1">
+      <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
       <c r="B24" s="9">
@@ -1827,7 +1833,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="61.8" customHeight="1">
+    <row r="25" ht="313.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
@@ -1842,7 +1848,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="151.8" customHeight="1">
+    <row r="26" ht="223.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
@@ -1850,14 +1856,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="79.8" customHeight="1">
+    <row r="27" ht="61.8" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
@@ -1865,14 +1871,14 @@
         <v>4</v>
       </c>
       <c r="C27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="43.8" customHeight="1">
+    <row r="28" ht="151.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
@@ -1887,7 +1893,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="115.8" customHeight="1">
+    <row r="29" ht="79.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
@@ -1902,7 +1908,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="241.8" customHeight="1">
+    <row r="30" ht="43.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>32</v>
       </c>
@@ -1917,7 +1923,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="241.8" customHeight="1">
+    <row r="31" ht="115.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>33</v>
       </c>
@@ -1932,7 +1938,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="169.8" customHeight="1">
+    <row r="32" ht="241.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>34</v>
       </c>
@@ -1946,6 +1952,36 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="241.8" customHeight="1">
+      <c r="A33" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="169.8" customHeight="1">
+      <c r="A34" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/14.xlsx
+++ b/story_xlsx_files/14.xlsx
@@ -33,7 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Henry walked into lecture with Maria who</t>
+      <t>Henry walked into lecture with Maria, who</t>
     </r>
     <r>
       <rPr>
@@ -88,7 +88,7 @@
     <t>I’m sorry I’m telling you now in lecture, but you know, I have to leave for the airport after class and this is really hard for me to tell you.</t>
   </si>
   <si>
-    <t>I just know when I’m there I’m going to be so busy and I really want to be immersed in the life of the place I’m in.”</t>
+    <t>I just know when I’m there I’m going to be so busy, and I really want to be immersed in the life of the place I’m in.”</t>
   </si>
   <si>
     <t>The professor said, “We will now talk about one of Aristotle’s works, The Categories.</t>
@@ -106,16 +106,16 @@
     <t>Henry felt horrible, like the wind had just been knocked out of him and he whispered back, “Maria, I don’t want to break up with you because I love you.</t>
   </si>
   <si>
-    <t>I’ll come visit you and it will be fine.</t>
+    <t>I’ll come visit you, and it will be fine.</t>
   </si>
   <si>
     <t>I don’t want to break up.”</t>
   </si>
   <si>
-    <t>Maria felt so guilty that she nearly gave in, but forced herself to hold her ground, knowing that this would make things much easier for both of them in the future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She gave his hand a squeeze but shook her head sadly, before turning back to look at her empty desk. </t>
+    <t>Maria felt so guilty that she nearly gave in, but she forced herself to hold her ground, knowing that this would make things much easier for both of them in the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She gave his hand a squeeze but shook her head sadly before turning back to look at her empty desk. </t>
   </si>
   <si>
     <t>The professor wrapped up, “Alright, class, that’s all for today.</t>
@@ -1788,7 +1788,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="116.05" customHeight="1">
+    <row r="22" ht="128.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
